--- a/data/shared/raw/musical-notes-frequencies.xlsx
+++ b/data/shared/raw/musical-notes-frequencies.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4297,12 +4297,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color theme="0" tint="-0.34998626667073579"/>
@@ -4591,18 +4586,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:D110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
@@ -4613,7 +4608,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
@@ -4624,7 +4619,7 @@
         <v>2109.89</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
@@ -4635,7 +4630,7 @@
         <v>1991.47</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -4646,7 +4641,7 @@
         <v>1879.69</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
@@ -4657,7 +4652,7 @@
         <v>1774.2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
@@ -4668,7 +4663,7 @@
         <v>1674.62</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
@@ -4679,7 +4674,7 @@
         <v>1580.63</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
@@ -4690,7 +4685,7 @@
         <v>1491.91</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
@@ -4701,7 +4696,7 @@
         <v>1408.18</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
@@ -4712,7 +4707,7 @@
         <v>1329.14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
@@ -4723,7 +4718,7 @@
         <v>1254.55</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
@@ -4734,7 +4729,7 @@
         <v>1184.1300000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>20</v>
       </c>
@@ -4745,7 +4740,7 @@
         <v>1117.67</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>21</v>
       </c>
@@ -4756,7 +4751,7 @@
         <v>1054.94</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>22</v>
       </c>
@@ -4767,7 +4762,7 @@
         <v>995.73</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>23</v>
       </c>
@@ -4778,7 +4773,7 @@
         <v>939.85</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>24</v>
       </c>
@@ -4789,7 +4784,7 @@
         <v>887.1</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>25</v>
       </c>
@@ -4800,7 +4795,7 @@
         <v>837.31</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>26</v>
       </c>
@@ -4811,7 +4806,7 @@
         <v>790.31</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>27</v>
       </c>
@@ -4822,7 +4817,7 @@
         <v>745.96</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>28</v>
       </c>
@@ -4833,7 +4828,7 @@
         <v>704.09</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>29</v>
       </c>
@@ -4844,7 +4839,7 @@
         <v>664.57</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>30</v>
       </c>
@@ -4855,7 +4850,7 @@
         <v>627.27</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>31</v>
       </c>
@@ -4866,7 +4861,7 @@
         <v>592.07000000000005</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>32</v>
       </c>
@@ -4877,7 +4872,7 @@
         <v>558.84</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>33</v>
       </c>
@@ -4888,7 +4883,7 @@
         <v>527.47</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>34</v>
       </c>
@@ -4899,7 +4894,7 @@
         <v>497.87</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>35</v>
       </c>
@@ -4910,7 +4905,7 @@
         <v>469.92</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>36</v>
       </c>
@@ -4921,7 +4916,7 @@
         <v>443.55</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>37</v>
       </c>
@@ -4932,7 +4927,7 @@
         <v>418.65</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>38</v>
       </c>
@@ -4943,7 +4938,7 @@
         <v>395.16</v>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>39</v>
       </c>
@@ -4954,7 +4949,7 @@
         <v>372.98</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>40</v>
       </c>
@@ -4965,7 +4960,7 @@
         <v>352.04</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>41</v>
       </c>
@@ -4976,7 +4971,7 @@
         <v>332.29</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>42</v>
       </c>
@@ -4987,7 +4982,7 @@
         <v>313.64</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>43</v>
       </c>
@@ -4998,7 +4993,7 @@
         <v>296.02999999999997</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>44</v>
       </c>
@@ -5009,7 +5004,7 @@
         <v>279.42</v>
       </c>
     </row>
-    <row r="39" spans="2:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>45</v>
       </c>
@@ -5020,7 +5015,7 @@
         <v>263.74</v>
       </c>
     </row>
-    <row r="40" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>46</v>
       </c>
@@ -5031,7 +5026,7 @@
         <v>248.93</v>
       </c>
     </row>
-    <row r="41" spans="2:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>47</v>
       </c>
@@ -5042,7 +5037,7 @@
         <v>234.96</v>
       </c>
     </row>
-    <row r="42" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>48</v>
       </c>
@@ -5053,7 +5048,7 @@
         <v>221.77</v>
       </c>
     </row>
-    <row r="43" spans="2:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>49</v>
       </c>
@@ -5064,7 +5059,7 @@
         <v>209.33</v>
       </c>
     </row>
-    <row r="44" spans="2:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>50</v>
       </c>
@@ -5075,7 +5070,7 @@
         <v>197.58</v>
       </c>
     </row>
-    <row r="45" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
         <v>51</v>
       </c>
@@ -5086,7 +5081,7 @@
         <v>186.49</v>
       </c>
     </row>
-    <row r="46" spans="2:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
         <v>52</v>
       </c>
@@ -5097,7 +5092,7 @@
         <v>176.02</v>
       </c>
     </row>
-    <row r="47" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>53</v>
       </c>
@@ -5108,7 +5103,7 @@
         <v>166.14</v>
       </c>
     </row>
-    <row r="48" spans="2:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
         <v>54</v>
       </c>
@@ -5119,7 +5114,7 @@
         <v>156.82</v>
       </c>
     </row>
-    <row r="49" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>55</v>
       </c>
@@ -5130,7 +5125,7 @@
         <v>148.02000000000001</v>
       </c>
     </row>
-    <row r="50" spans="2:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>56</v>
       </c>
@@ -5141,7 +5136,7 @@
         <v>139.71</v>
       </c>
     </row>
-    <row r="51" spans="2:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>57</v>
       </c>
@@ -5152,7 +5147,7 @@
         <v>131.87</v>
       </c>
     </row>
-    <row r="52" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>58</v>
       </c>
@@ -5163,7 +5158,7 @@
         <v>124.47</v>
       </c>
     </row>
-    <row r="53" spans="2:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
         <v>59</v>
       </c>
@@ -5174,7 +5169,7 @@
         <v>117.48</v>
       </c>
     </row>
-    <row r="54" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>60</v>
       </c>
@@ -5185,7 +5180,7 @@
         <v>110.89</v>
       </c>
     </row>
-    <row r="55" spans="2:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
         <v>61</v>
       </c>
@@ -5196,7 +5191,7 @@
         <v>104.66</v>
       </c>
     </row>
-    <row r="56" spans="2:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
         <v>62</v>
       </c>
@@ -5207,7 +5202,7 @@
         <v>98.79</v>
       </c>
     </row>
-    <row r="57" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
         <v>63</v>
       </c>
@@ -5218,7 +5213,7 @@
         <v>93.24</v>
       </c>
     </row>
-    <row r="58" spans="2:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
         <v>64</v>
       </c>
@@ -5229,7 +5224,7 @@
         <v>88.01</v>
       </c>
     </row>
-    <row r="59" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
         <v>65</v>
       </c>
@@ -5240,7 +5235,7 @@
         <v>83.07</v>
       </c>
     </row>
-    <row r="60" spans="2:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
         <v>66</v>
       </c>
@@ -5251,7 +5246,7 @@
         <v>78.41</v>
       </c>
     </row>
-    <row r="61" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
         <v>67</v>
       </c>
@@ -5262,7 +5257,7 @@
         <v>74.010000000000005</v>
       </c>
     </row>
-    <row r="62" spans="2:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
         <v>68</v>
       </c>
@@ -5273,7 +5268,7 @@
         <v>69.849999999999994</v>
       </c>
     </row>
-    <row r="63" spans="2:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
         <v>69</v>
       </c>
@@ -5284,7 +5279,7 @@
         <v>65.930000000000007</v>
       </c>
     </row>
-    <row r="64" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
         <v>70</v>
       </c>
@@ -5295,7 +5290,7 @@
         <v>62.23</v>
       </c>
     </row>
-    <row r="65" spans="2:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
         <v>71</v>
       </c>
@@ -5306,7 +5301,7 @@
         <v>58.74</v>
       </c>
     </row>
-    <row r="66" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
         <v>72</v>
       </c>
@@ -5317,7 +5312,7 @@
         <v>55.44</v>
       </c>
     </row>
-    <row r="67" spans="2:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
         <v>73</v>
       </c>
@@ -5328,7 +5323,7 @@
         <v>52.33</v>
       </c>
     </row>
-    <row r="68" spans="2:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B68" s="2" t="s">
         <v>74</v>
       </c>
@@ -5339,7 +5334,7 @@
         <v>49.39</v>
       </c>
     </row>
-    <row r="69" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
         <v>75</v>
       </c>
@@ -5350,7 +5345,7 @@
         <v>46.62</v>
       </c>
     </row>
-    <row r="70" spans="2:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B70" s="2" t="s">
         <v>76</v>
       </c>
@@ -5361,7 +5356,7 @@
         <v>44.01</v>
       </c>
     </row>
-    <row r="71" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
         <v>77</v>
       </c>
@@ -5372,7 +5367,7 @@
         <v>41.54</v>
       </c>
     </row>
-    <row r="72" spans="2:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
         <v>78</v>
       </c>
@@ -5383,7 +5378,7 @@
         <v>39.200000000000003</v>
       </c>
     </row>
-    <row r="73" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
         <v>79</v>
       </c>
@@ -5394,7 +5389,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="74" spans="2:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
         <v>80</v>
       </c>
@@ -5405,7 +5400,7 @@
         <v>34.93</v>
       </c>
     </row>
-    <row r="75" spans="2:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
         <v>81</v>
       </c>
@@ -5416,7 +5411,7 @@
         <v>32.97</v>
       </c>
     </row>
-    <row r="76" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
         <v>82</v>
       </c>
@@ -5427,7 +5422,7 @@
         <v>31.12</v>
       </c>
     </row>
-    <row r="77" spans="2:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
         <v>83</v>
       </c>
@@ -5438,7 +5433,7 @@
         <v>29.37</v>
       </c>
     </row>
-    <row r="78" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B78" s="2" t="s">
         <v>84</v>
       </c>
@@ -5449,7 +5444,7 @@
         <v>27.72</v>
       </c>
     </row>
-    <row r="79" spans="2:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B79" s="2" t="s">
         <v>85</v>
       </c>
@@ -5460,7 +5455,7 @@
         <v>26.17</v>
       </c>
     </row>
-    <row r="80" spans="2:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B80" s="2" t="s">
         <v>86</v>
       </c>
@@ -5471,7 +5466,7 @@
         <v>24.7</v>
       </c>
     </row>
-    <row r="81" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B81" s="2" t="s">
         <v>87</v>
       </c>
@@ -5482,7 +5477,7 @@
         <v>23.31</v>
       </c>
     </row>
-    <row r="82" spans="2:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
         <v>88</v>
       </c>
@@ -5493,7 +5488,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B83" s="2" t="s">
         <v>89</v>
       </c>
@@ -5504,7 +5499,7 @@
         <v>20.77</v>
       </c>
     </row>
-    <row r="84" spans="2:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B84" s="2" t="s">
         <v>90</v>
       </c>
@@ -5515,7 +5510,7 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="85" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B85" s="2" t="s">
         <v>91</v>
       </c>
@@ -5526,7 +5521,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="86" spans="2:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B86" s="2" t="s">
         <v>92</v>
       </c>
@@ -5537,7 +5532,7 @@
         <v>17.46</v>
       </c>
     </row>
-    <row r="87" spans="2:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B87" s="2" t="s">
         <v>93</v>
       </c>
@@ -5548,7 +5543,7 @@
         <v>16.48</v>
       </c>
     </row>
-    <row r="88" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B88" s="2" t="s">
         <v>94</v>
       </c>
@@ -5559,7 +5554,7 @@
         <v>15.56</v>
       </c>
     </row>
-    <row r="89" spans="2:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B89" s="2" t="s">
         <v>95</v>
       </c>
@@ -5570,7 +5565,7 @@
         <v>14.69</v>
       </c>
     </row>
-    <row r="90" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B90" s="2" t="s">
         <v>96</v>
       </c>
@@ -5581,7 +5576,7 @@
         <v>13.86</v>
       </c>
     </row>
-    <row r="91" spans="2:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B91" s="2" t="s">
         <v>97</v>
       </c>
@@ -5592,7 +5587,7 @@
         <v>13.08</v>
       </c>
     </row>
-    <row r="92" spans="2:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B92" s="2" t="s">
         <v>98</v>
       </c>
@@ -5603,7 +5598,7 @@
         <v>12.35</v>
       </c>
     </row>
-    <row r="93" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B93" s="2" t="s">
         <v>99</v>
       </c>
@@ -5614,7 +5609,7 @@
         <v>11.66</v>
       </c>
     </row>
-    <row r="94" spans="2:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B94" s="2" t="s">
         <v>100</v>
       </c>
@@ -5625,7 +5620,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B95" s="2" t="s">
         <v>101</v>
       </c>
@@ -5636,7 +5631,7 @@
         <v>10.38</v>
       </c>
     </row>
-    <row r="96" spans="2:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B96" s="2" t="s">
         <v>102</v>
       </c>
@@ -5647,7 +5642,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="97" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B97" s="2" t="s">
         <v>103</v>
       </c>
@@ -5658,7 +5653,7 @@
         <v>9.25</v>
       </c>
     </row>
-    <row r="98" spans="2:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B98" s="2" t="s">
         <v>104</v>
       </c>
@@ -5669,7 +5664,7 @@
         <v>8.73</v>
       </c>
     </row>
-    <row r="99" spans="2:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B99" s="2" t="s">
         <v>105</v>
       </c>
@@ -5680,7 +5675,7 @@
         <v>8.24</v>
       </c>
     </row>
-    <row r="100" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B100" s="2" t="s">
         <v>106</v>
       </c>
@@ -5691,7 +5686,7 @@
         <v>7.78</v>
       </c>
     </row>
-    <row r="101" spans="2:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B101" s="2" t="s">
         <v>107</v>
       </c>
@@ -5702,7 +5697,7 @@
         <v>7.34</v>
       </c>
     </row>
-    <row r="102" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B102" s="2" t="s">
         <v>108</v>
       </c>
@@ -5713,7 +5708,7 @@
         <v>6.93</v>
       </c>
     </row>
-    <row r="103" spans="2:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B103" s="2" t="s">
         <v>109</v>
       </c>
@@ -5724,7 +5719,7 @@
         <v>6.54</v>
       </c>
     </row>
-    <row r="104" spans="2:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B104" s="2" t="s">
         <v>110</v>
       </c>
@@ -5735,7 +5730,7 @@
         <v>6.17</v>
       </c>
     </row>
-    <row r="105" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B105" s="2" t="s">
         <v>111</v>
       </c>
@@ -5746,7 +5741,7 @@
         <v>5.83</v>
       </c>
     </row>
-    <row r="106" spans="2:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B106" s="2" t="s">
         <v>112</v>
       </c>
@@ -5757,7 +5752,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="107" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B107" s="2" t="s">
         <v>113</v>
       </c>
@@ -5768,7 +5763,7 @@
         <v>5.19</v>
       </c>
     </row>
-    <row r="108" spans="2:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B108" s="2" t="s">
         <v>114</v>
       </c>
@@ -5779,7 +5774,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="109" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
         <v>115</v>
       </c>
@@ -5790,7 +5785,7 @@
         <v>4.63</v>
       </c>
     </row>
-    <row r="110" spans="2:4" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
         <v>116</v>
       </c>
@@ -5815,9 +5810,9 @@
       <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>228</v>
       </c>
@@ -5828,7 +5823,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>118</v>
       </c>
@@ -5839,7 +5834,7 @@
         <v>2109.89</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>119</v>
       </c>
@@ -5850,7 +5845,7 @@
         <v>1991.47</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>120</v>
       </c>
@@ -5861,7 +5856,7 @@
         <v>1879.69</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>121</v>
       </c>
@@ -5872,7 +5867,7 @@
         <v>1774.2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>122</v>
       </c>
@@ -5883,7 +5878,7 @@
         <v>1674.62</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>123</v>
       </c>
@@ -5894,7 +5889,7 @@
         <v>1580.63</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>124</v>
       </c>
@@ -5905,7 +5900,7 @@
         <v>1491.91</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>125</v>
       </c>
@@ -5916,7 +5911,7 @@
         <v>1408.18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>126</v>
       </c>
@@ -5927,7 +5922,7 @@
         <v>1329.14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>127</v>
       </c>
@@ -5938,7 +5933,7 @@
         <v>1254.55</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>128</v>
       </c>
@@ -5949,7 +5944,7 @@
         <v>1184.1300000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>129</v>
       </c>
@@ -5960,7 +5955,7 @@
         <v>1117.67</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>130</v>
       </c>
@@ -5971,7 +5966,7 @@
         <v>1054.94</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>131</v>
       </c>
@@ -5982,7 +5977,7 @@
         <v>995.73</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>132</v>
       </c>
@@ -5993,7 +5988,7 @@
         <v>939.85</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>133</v>
       </c>
@@ -6004,7 +5999,7 @@
         <v>887.1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>134</v>
       </c>
@@ -6015,7 +6010,7 @@
         <v>837.31</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>135</v>
       </c>
@@ -6026,7 +6021,7 @@
         <v>790.31</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>136</v>
       </c>
@@ -6037,7 +6032,7 @@
         <v>745.96</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>137</v>
       </c>
@@ -6048,7 +6043,7 @@
         <v>704.09</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>138</v>
       </c>
@@ -6059,7 +6054,7 @@
         <v>664.57</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>139</v>
       </c>
@@ -6070,7 +6065,7 @@
         <v>627.27</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>140</v>
       </c>
@@ -6081,7 +6076,7 @@
         <v>592.07000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>141</v>
       </c>
@@ -6092,7 +6087,7 @@
         <v>558.84</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>142</v>
       </c>
@@ -6103,7 +6098,7 @@
         <v>527.47</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>143</v>
       </c>
@@ -6114,7 +6109,7 @@
         <v>497.87</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>144</v>
       </c>
@@ -6125,7 +6120,7 @@
         <v>469.92</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>145</v>
       </c>
@@ -6136,7 +6131,7 @@
         <v>443.55</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>146</v>
       </c>
@@ -6147,7 +6142,7 @@
         <v>418.65</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>147</v>
       </c>
@@ -6158,7 +6153,7 @@
         <v>395.16</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>148</v>
       </c>
@@ -6169,7 +6164,7 @@
         <v>372.98</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>149</v>
       </c>
@@ -6180,7 +6175,7 @@
         <v>352.04</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>150</v>
       </c>
@@ -6191,7 +6186,7 @@
         <v>332.29</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>151</v>
       </c>
@@ -6202,7 +6197,7 @@
         <v>313.64</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>152</v>
       </c>
@@ -6213,7 +6208,7 @@
         <v>296.02999999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>153</v>
       </c>
@@ -6224,7 +6219,7 @@
         <v>279.42</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>154</v>
       </c>
@@ -6235,7 +6230,7 @@
         <v>263.74</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>155</v>
       </c>
@@ -6246,7 +6241,7 @@
         <v>248.93</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>156</v>
       </c>
@@ -6257,7 +6252,7 @@
         <v>234.96</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>157</v>
       </c>
@@ -6268,7 +6263,7 @@
         <v>221.77</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>158</v>
       </c>
@@ -6279,7 +6274,7 @@
         <v>209.33</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>159</v>
       </c>
@@ -6290,7 +6285,7 @@
         <v>197.58</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>160</v>
       </c>
@@ -6301,7 +6296,7 @@
         <v>186.49</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>161</v>
       </c>
@@ -6312,7 +6307,7 @@
         <v>176.02</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>162</v>
       </c>
@@ -6323,7 +6318,7 @@
         <v>166.14</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>163</v>
       </c>
@@ -6334,7 +6329,7 @@
         <v>156.82</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>164</v>
       </c>
@@ -6345,7 +6340,7 @@
         <v>148.02000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>165</v>
       </c>
@@ -6356,7 +6351,7 @@
         <v>139.71</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>166</v>
       </c>
@@ -6367,7 +6362,7 @@
         <v>131.87</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>167</v>
       </c>
@@ -6378,7 +6373,7 @@
         <v>124.47</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>168</v>
       </c>
@@ -6389,7 +6384,7 @@
         <v>117.48</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>169</v>
       </c>
@@ -6400,7 +6395,7 @@
         <v>110.89</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>170</v>
       </c>
@@ -6411,7 +6406,7 @@
         <v>104.66</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>171</v>
       </c>
@@ -6422,7 +6417,7 @@
         <v>98.79</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>172</v>
       </c>
@@ -6433,7 +6428,7 @@
         <v>93.24</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>173</v>
       </c>
@@ -6444,7 +6439,7 @@
         <v>88.01</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>174</v>
       </c>
@@ -6455,7 +6450,7 @@
         <v>83.07</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>175</v>
       </c>
@@ -6466,7 +6461,7 @@
         <v>78.41</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>176</v>
       </c>
@@ -6477,7 +6472,7 @@
         <v>74.010000000000005</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>177</v>
       </c>
@@ -6488,7 +6483,7 @@
         <v>69.849999999999994</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>178</v>
       </c>
@@ -6499,7 +6494,7 @@
         <v>65.930000000000007</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>179</v>
       </c>
@@ -6510,7 +6505,7 @@
         <v>62.23</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>180</v>
       </c>
@@ -6521,7 +6516,7 @@
         <v>58.74</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>181</v>
       </c>
@@ -6532,7 +6527,7 @@
         <v>55.44</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>182</v>
       </c>
@@ -6543,7 +6538,7 @@
         <v>52.33</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>183</v>
       </c>
@@ -6554,7 +6549,7 @@
         <v>49.39</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>184</v>
       </c>
@@ -6565,7 +6560,7 @@
         <v>46.62</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>185</v>
       </c>
@@ -6576,7 +6571,7 @@
         <v>44.01</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>186</v>
       </c>
@@ -6587,7 +6582,7 @@
         <v>41.54</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>187</v>
       </c>
@@ -6598,7 +6593,7 @@
         <v>39.200000000000003</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>188</v>
       </c>
@@ -6609,7 +6604,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>189</v>
       </c>
@@ -6620,7 +6615,7 @@
         <v>34.93</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>190</v>
       </c>
@@ -6631,7 +6626,7 @@
         <v>32.97</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>191</v>
       </c>
@@ -6642,7 +6637,7 @@
         <v>31.12</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>192</v>
       </c>
@@ -6653,7 +6648,7 @@
         <v>29.37</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>193</v>
       </c>
@@ -6664,7 +6659,7 @@
         <v>27.72</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>194</v>
       </c>
@@ -6675,7 +6670,7 @@
         <v>26.17</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>195</v>
       </c>
@@ -6686,7 +6681,7 @@
         <v>24.7</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>196</v>
       </c>
@@ -6697,7 +6692,7 @@
         <v>23.31</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>197</v>
       </c>
@@ -6708,7 +6703,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>198</v>
       </c>
@@ -6719,7 +6714,7 @@
         <v>20.77</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>199</v>
       </c>
@@ -6730,7 +6725,7 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>200</v>
       </c>
@@ -6741,7 +6736,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>201</v>
       </c>
@@ -6752,7 +6747,7 @@
         <v>17.46</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>202</v>
       </c>
@@ -6763,7 +6758,7 @@
         <v>16.48</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>203</v>
       </c>
@@ -6774,7 +6769,7 @@
         <v>15.56</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>204</v>
       </c>
@@ -6785,7 +6780,7 @@
         <v>14.69</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>205</v>
       </c>
@@ -6796,7 +6791,7 @@
         <v>13.86</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>206</v>
       </c>
@@ -6807,7 +6802,7 @@
         <v>13.08</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>207</v>
       </c>
@@ -6818,7 +6813,7 @@
         <v>12.35</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>208</v>
       </c>
@@ -6829,7 +6824,7 @@
         <v>11.66</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>209</v>
       </c>
@@ -6840,7 +6835,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>210</v>
       </c>
@@ -6851,7 +6846,7 @@
         <v>10.38</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>211</v>
       </c>
@@ -6862,7 +6857,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>212</v>
       </c>
@@ -6873,7 +6868,7 @@
         <v>9.25</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>213</v>
       </c>
@@ -6884,7 +6879,7 @@
         <v>8.73</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>214</v>
       </c>
@@ -6895,7 +6890,7 @@
         <v>8.24</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>215</v>
       </c>
@@ -6906,7 +6901,7 @@
         <v>7.78</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>216</v>
       </c>
@@ -6917,7 +6912,7 @@
         <v>7.34</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>217</v>
       </c>
@@ -6928,7 +6923,7 @@
         <v>6.93</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>218</v>
       </c>
@@ -6939,7 +6934,7 @@
         <v>6.54</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>219</v>
       </c>
@@ -6950,7 +6945,7 @@
         <v>6.17</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>220</v>
       </c>
@@ -6961,7 +6956,7 @@
         <v>5.83</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>221</v>
       </c>
@@ -6972,7 +6967,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>222</v>
       </c>
@@ -6983,7 +6978,7 @@
         <v>5.19</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>223</v>
       </c>
@@ -6994,7 +6989,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>224</v>
       </c>
@@ -7005,7 +7000,7 @@
         <v>4.63</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>225</v>
       </c>
@@ -7025,21 +7020,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="3" hidden="1" customWidth="1"/>
-    <col min="4" max="10" width="8.88671875" style="3"/>
+    <col min="2" max="2" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="3" hidden="1" customWidth="1"/>
+    <col min="4" max="10" width="8.85546875" style="3"/>
     <col min="11" max="11" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="3"/>
+    <col min="12" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C1" s="3" t="s">
         <v>226</v>
       </c>
@@ -7065,7 +7060,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>234</v>
       </c>
@@ -7091,7 +7086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>236</v>
       </c>
@@ -7117,7 +7112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>237</v>
       </c>
@@ -7143,7 +7138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>235</v>
       </c>
@@ -7169,7 +7164,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>228</v>
       </c>
@@ -7180,7 +7175,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>144</v>
       </c>
@@ -7194,7 +7189,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>145</v>
       </c>
@@ -7208,7 +7203,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>146</v>
       </c>
@@ -7236,7 +7231,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>147</v>
       </c>
@@ -7266,7 +7261,7 @@
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>148</v>
       </c>
@@ -7292,7 +7287,7 @@
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>149</v>
       </c>
@@ -7320,7 +7315,7 @@
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>150</v>
       </c>
@@ -7346,7 +7341,7 @@
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>151</v>
       </c>
@@ -7376,7 +7371,7 @@
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>152</v>
       </c>
@@ -7406,7 +7401,7 @@
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>153</v>
       </c>
@@ -7432,7 +7427,7 @@
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>154</v>
       </c>
@@ -7462,7 +7457,7 @@
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>155</v>
       </c>
@@ -7488,7 +7483,7 @@
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>156</v>
       </c>
@@ -7518,7 +7513,7 @@
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>157</v>
       </c>
@@ -7544,7 +7539,7 @@
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>158</v>
       </c>
@@ -7574,7 +7569,7 @@
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>159</v>
       </c>
@@ -7604,7 +7599,7 @@
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>160</v>
       </c>
@@ -7630,7 +7625,7 @@
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>161</v>
       </c>
@@ -7658,7 +7653,7 @@
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>162</v>
       </c>
@@ -7684,7 +7679,7 @@
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>163</v>
       </c>
@@ -7714,7 +7709,7 @@
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>164</v>
       </c>
@@ -7744,7 +7739,7 @@
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>165</v>
       </c>
@@ -7770,7 +7765,7 @@
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>166</v>
       </c>
@@ -7802,7 +7797,7 @@
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>167</v>
       </c>
@@ -7828,7 +7823,7 @@
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>168</v>
       </c>
@@ -7860,7 +7855,7 @@
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>169</v>
       </c>
@@ -7886,7 +7881,7 @@
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>170</v>
       </c>
@@ -7918,7 +7913,7 @@
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>171</v>
       </c>
@@ -7950,7 +7945,7 @@
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>172</v>
       </c>
@@ -7976,7 +7971,7 @@
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>173</v>
       </c>
@@ -8006,7 +8001,7 @@
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>174</v>
       </c>
@@ -8032,7 +8027,7 @@
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>175</v>
       </c>
@@ -8052,7 +8047,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>176</v>
       </c>
@@ -8069,7 +8064,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>177</v>
       </c>
@@ -8083,7 +8078,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>178</v>
       </c>
@@ -8100,7 +8095,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>179</v>
       </c>
@@ -8114,7 +8109,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>180</v>
       </c>
@@ -8128,7 +8123,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>181</v>
       </c>
@@ -8142,7 +8137,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>182</v>
       </c>
@@ -8159,7 +8154,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>183</v>
       </c>
@@ -8176,7 +8171,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>184</v>
       </c>
@@ -8190,7 +8185,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>185</v>
       </c>
@@ -8204,7 +8199,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>186</v>
       </c>
@@ -8218,7 +8213,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>187</v>
       </c>
@@ -8235,7 +8230,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>188</v>
       </c>
@@ -8249,7 +8244,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>189</v>
       </c>
@@ -8263,7 +8258,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>190</v>
       </c>
@@ -8280,177 +8275,177 @@
         <v>190</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C54" s="3">
         <v>31.12</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C55" s="3">
         <v>29.37</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C56" s="3">
         <v>27.72</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C57" s="3">
         <v>26.17</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C58" s="3">
         <v>24.7</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C59" s="3">
         <v>23.31</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C60" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C61" s="3">
         <v>20.77</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C62" s="3">
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C63" s="3">
         <v>18.5</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C64" s="3">
         <v>17.46</v>
       </c>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C65" s="3">
         <v>16.48</v>
       </c>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C66" s="3">
         <v>15.56</v>
       </c>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67" s="3">
         <v>14.69</v>
       </c>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C68" s="3">
         <v>13.86</v>
       </c>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C69" s="3">
         <v>13.08</v>
       </c>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C70" s="3">
         <v>12.35</v>
       </c>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C71" s="3">
         <v>11.66</v>
       </c>
     </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C72" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C73" s="3">
         <v>10.38</v>
       </c>
     </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C74" s="3">
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C75" s="3">
         <v>9.25</v>
       </c>
     </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C76" s="3">
         <v>8.73</v>
       </c>
     </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C77" s="3">
         <v>8.24</v>
       </c>
     </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C78" s="3">
         <v>7.78</v>
       </c>
     </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C79" s="3">
         <v>7.34</v>
       </c>
     </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C80" s="3">
         <v>6.93</v>
       </c>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C81" s="3">
         <v>6.54</v>
       </c>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C82" s="3">
         <v>6.17</v>
       </c>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C83" s="3">
         <v>5.83</v>
       </c>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C84" s="3">
         <v>5.5</v>
       </c>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C85" s="3">
         <v>5.19</v>
       </c>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C86" s="3">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C87" s="3">
         <v>4.63</v>
       </c>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C88" s="3">
         <v>4.37</v>
       </c>
